--- a/Manuscript/Figures/Data/Figure7-Pyrite 1 site DDL Deprotonated Site Data.xlsx
+++ b/Manuscript/Figures/Data/Figure7-Pyrite 1 site DDL Deprotonated Site Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Manuscript\Figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Manuscript\Figures\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:F17"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,19 +392,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2.1866903E-2</v>
+        <v>0.163287555206</v>
       </c>
       <c r="C2">
-        <v>4.3474292578255878E-2</v>
+        <v>0.38149406496338573</v>
       </c>
       <c r="D2">
-        <v>2.3554765241941875E-2</v>
+        <v>4.2039687351188987E-2</v>
       </c>
       <c r="E2">
-        <v>3.0033333333333334</v>
+        <v>2.9933333333333336</v>
       </c>
       <c r="F2">
-        <v>5.7735026918961348E-3</v>
+        <v>1.1547005383792526E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -412,19 +412,19 @@
         <v>2.1</v>
       </c>
       <c r="B3">
-        <v>2.9100094999999999E-2</v>
+        <v>0.207831077394</v>
       </c>
       <c r="C3">
-        <v>4.4190899663826659E-2</v>
+        <v>0.54079969318947774</v>
       </c>
       <c r="D3">
-        <v>9.3620025293164218E-3</v>
+        <v>1.1307961032332713E-2</v>
       </c>
       <c r="E3">
         <v>3.0033333333333334</v>
       </c>
       <c r="F3">
-        <v>8.3333333333332742E-3</v>
+        <v>5.7735026918961348E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -432,19 +432,19 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B4">
-        <v>3.7372157000000003E-2</v>
+        <v>0.254589961024</v>
       </c>
       <c r="C4">
-        <v>5.2295798663713651E-2</v>
+        <v>0.54114371551005247</v>
       </c>
       <c r="D4">
-        <v>4.2960558835673818E-2</v>
+        <v>4.4944264440218446E-3</v>
       </c>
       <c r="E4">
-        <v>2.9933333333333336</v>
+        <v>3.0033333333333334</v>
       </c>
       <c r="F4">
-        <v>1.1547005383792526E-2</v>
+        <v>8.3333333333332742E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -452,13 +452,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B5">
-        <v>4.6406818000000002E-2</v>
+        <v>0.30112915976900001</v>
       </c>
       <c r="C5">
-        <v>3.9592216704615768E-2</v>
+        <v>0.54503464293473003</v>
       </c>
       <c r="D5">
-        <v>3.6201883091440245E-3</v>
+        <v>2.062412086264484E-2</v>
       </c>
       <c r="E5">
         <v>2.9933333333333336</v>
@@ -472,19 +472,19 @@
         <v>2.4</v>
       </c>
       <c r="B6">
-        <v>5.5850603999999998E-2</v>
+        <v>0.345328911889</v>
       </c>
       <c r="C6">
-        <v>4.3289576462565704E-2</v>
+        <v>0.53893602092389647</v>
       </c>
       <c r="D6">
-        <v>9.9088715586842461E-3</v>
+        <v>1.7379476258423448E-3</v>
       </c>
       <c r="E6">
-        <v>4.99</v>
+        <v>2.9933333333333336</v>
       </c>
       <c r="F6">
-        <v>2.6457513110645845E-2</v>
+        <v>1.1547005383792526E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -492,19 +492,19 @@
         <v>2.5</v>
       </c>
       <c r="B7">
-        <v>6.5327432000000005E-2</v>
+        <v>0.38567879271299998</v>
       </c>
       <c r="C7">
-        <v>7.1542995212599339E-2</v>
+        <v>0.43834237035580376</v>
       </c>
       <c r="D7">
-        <v>1.2973884745418272E-2</v>
+        <v>1.7670864210681043E-2</v>
       </c>
       <c r="E7">
-        <v>4.9933333333333332</v>
+        <v>5.0233333333333334</v>
       </c>
       <c r="F7">
-        <v>2.0816659994661382E-2</v>
+        <v>4.6188021535170098E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -512,19 +512,19 @@
         <v>2.6</v>
       </c>
       <c r="B8">
-        <v>7.4492043999999993E-2</v>
+        <v>0.42134668099900002</v>
       </c>
       <c r="C8">
-        <v>7.7428385313679571E-2</v>
+        <v>0.54071101632868901</v>
       </c>
       <c r="D8">
-        <v>1.4165770145314125E-2</v>
+        <v>4.7569624366485246E-3</v>
       </c>
       <c r="E8">
-        <v>5.0366666666666662</v>
+        <v>4.99</v>
       </c>
       <c r="F8">
-        <v>1.5275252316519626E-2</v>
+        <v>2.6457513110645845E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -532,19 +532,19 @@
         <v>2.7</v>
       </c>
       <c r="B9">
-        <v>8.3068718E-2</v>
+        <v>0.45208279949800001</v>
       </c>
       <c r="C9">
-        <v>0.11766164338235985</v>
+        <v>0.5542746649141852</v>
       </c>
       <c r="D9">
-        <v>6.4780170396324457E-3</v>
+        <v>6.2283865550030989E-3</v>
       </c>
       <c r="E9">
-        <v>5.0133333333333328</v>
+        <v>4.9933333333333332</v>
       </c>
       <c r="F9">
-        <v>4.1633319989322265E-2</v>
+        <v>2.0816659994661382E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -552,59 +552,59 @@
         <v>2.8</v>
       </c>
       <c r="B10">
-        <v>9.0869469999999994E-2</v>
+        <v>0.47805208623700002</v>
       </c>
       <c r="C10">
-        <v>0.10744204318756756</v>
+        <v>0.55710007035718179</v>
       </c>
       <c r="D10">
-        <v>8.0569979182775562E-3</v>
+        <v>6.8005762380074983E-3</v>
       </c>
       <c r="E10">
-        <v>6.9833333333333334</v>
+        <v>5.0366666666666662</v>
       </c>
       <c r="F10">
-        <v>3.0550504633038766E-2</v>
+        <v>1.5275252316519626E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2.9</v>
+        <v>2.9000000000099999</v>
       </c>
       <c r="B11">
-        <v>9.7793579000000005E-2</v>
+        <v>0.49966675215799999</v>
       </c>
       <c r="C11">
-        <v>0.1318667120377075</v>
+        <v>0.5764148930595675</v>
       </c>
       <c r="D11">
-        <v>1.1229924114236905E-2</v>
+        <v>3.1099084834229291E-3</v>
       </c>
       <c r="E11">
-        <v>6.9733333333333336</v>
+        <v>5.0133333333333328</v>
       </c>
       <c r="F11">
-        <v>2.5385910352879595E-2</v>
+        <v>4.1633319989322265E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>3.00000000001</v>
       </c>
       <c r="B12">
-        <v>0.10381454900000001</v>
+        <v>0.51745431077500004</v>
       </c>
       <c r="C12">
-        <v>0.15611409212286276</v>
+        <v>0.469249011180983</v>
       </c>
       <c r="D12">
-        <v>4.4728506340149229E-2</v>
+        <v>2.2708007255614518E-2</v>
       </c>
       <c r="E12">
-        <v>7.0166666666666666</v>
+        <v>6.9733333333333336</v>
       </c>
       <c r="F12">
-        <v>2.5166114784235707E-2</v>
+        <v>3.2145502536643E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -612,19 +612,19 @@
         <v>3.1</v>
       </c>
       <c r="B13">
-        <v>0.108961273</v>
+        <v>0.53196825941799997</v>
       </c>
       <c r="C13">
-        <v>0.15876825581889287</v>
+        <v>0.57150875879833707</v>
       </c>
       <c r="D13">
-        <v>6.5258936142053728E-3</v>
+        <v>3.8679315018278803E-3</v>
       </c>
       <c r="E13">
         <v>6.9833333333333334</v>
       </c>
       <c r="F13">
-        <v>3.2145502536643007E-2</v>
+        <v>3.0550504633038766E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -632,19 +632,19 @@
         <v>3.2</v>
       </c>
       <c r="B14">
-        <v>0.113299001</v>
+        <v>0.54373576958799996</v>
       </c>
       <c r="C14">
-        <v>0.2127918011695287</v>
+        <v>0.58323433537480052</v>
       </c>
       <c r="D14">
-        <v>2.8382382835258149E-2</v>
+        <v>5.3911615325178009E-3</v>
       </c>
       <c r="E14">
-        <v>8.9866666666666664</v>
+        <v>6.9733333333333336</v>
       </c>
       <c r="F14">
-        <v>1.154700538379227E-2</v>
+        <v>2.5385910352879595E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -652,19 +652,19 @@
         <v>3.3</v>
       </c>
       <c r="B15">
-        <v>0.11691285899999999</v>
+        <v>0.55323088734899994</v>
       </c>
       <c r="C15">
-        <v>0.23554345826628062</v>
+        <v>0.59487480074657484</v>
       </c>
       <c r="D15">
-        <v>3.2672324585046571E-3</v>
+        <v>2.1472861288731531E-2</v>
       </c>
       <c r="E15">
-        <v>8.9800000000000022</v>
+        <v>7.0166666666666666</v>
       </c>
       <c r="F15">
-        <v>9.9999999999997868E-3</v>
+        <v>2.5166114784235707E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,19 +672,19 @@
         <v>3.4</v>
       </c>
       <c r="B16">
-        <v>0.119895448</v>
+        <v>0.56086476759199999</v>
       </c>
       <c r="C16">
-        <v>0.18636275543164157</v>
+        <v>0.59614898791591653</v>
       </c>
       <c r="D16">
-        <v>3.8596478696237779E-2</v>
+        <v>3.1328926411537312E-3</v>
       </c>
       <c r="E16">
-        <v>8.9966666666666661</v>
+        <v>6.9833333333333334</v>
       </c>
       <c r="F16">
-        <v>2.5166114784235295E-2</v>
+        <v>3.2145502536643007E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -692,19 +692,19 @@
         <v>3.5</v>
       </c>
       <c r="B17">
-        <v>0.122338355</v>
+        <v>0.56698544995699995</v>
       </c>
       <c r="C17">
-        <v>0.18601808097673023</v>
+        <v>0.5178425389738156</v>
       </c>
       <c r="D17">
-        <v>3.1863223256413671E-2</v>
+        <v>3.6599482021059691E-2</v>
       </c>
       <c r="E17">
         <v>8.99</v>
       </c>
       <c r="F17">
-        <v>9.9999999999997868E-3</v>
+        <v>1.7320508075688402E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -712,7 +712,19 @@
         <v>3.6</v>
       </c>
       <c r="B18">
-        <v>0.124326978</v>
+        <v>0.57188264455600002</v>
+      </c>
+      <c r="C18">
+        <v>0.62208412840144678</v>
+      </c>
+      <c r="D18">
+        <v>1.3625560510124042E-2</v>
+      </c>
+      <c r="E18">
+        <v>8.9866666666666664</v>
+      </c>
+      <c r="F18">
+        <v>1.154700538379227E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -720,7 +732,19 @@
         <v>3.7</v>
       </c>
       <c r="B19">
-        <v>0.12593781800000001</v>
+        <v>0.57579465540700003</v>
+      </c>
+      <c r="C19">
+        <v>0.63300654045813587</v>
+      </c>
+      <c r="D19">
+        <v>1.5685037377726563E-3</v>
+      </c>
+      <c r="E19">
+        <v>8.9800000000000022</v>
+      </c>
+      <c r="F19">
+        <v>9.9999999999997868E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,495 +752,527 @@
         <v>3.8</v>
       </c>
       <c r="B20">
-        <v>0.12723748700000001</v>
+        <v>0.57891582620699999</v>
+      </c>
+      <c r="C20">
+        <v>0.60939630849511151</v>
+      </c>
+      <c r="D20">
+        <v>1.8529052300006489E-2</v>
+      </c>
+      <c r="E20">
+        <v>8.9966666666666661</v>
+      </c>
+      <c r="F20">
+        <v>2.5166114784235295E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3.9</v>
+        <v>3.9000000000999999</v>
       </c>
       <c r="B21">
-        <v>0.12828277499999999</v>
+        <v>0.581403656913</v>
+      </c>
+      <c r="C21">
+        <v>0.60923084026543728</v>
+      </c>
+      <c r="D21">
+        <v>1.5296611248176354E-2</v>
+      </c>
+      <c r="E21">
+        <v>8.99</v>
+      </c>
+      <c r="F21">
+        <v>9.9999999999997868E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4.0999999999999996</v>
+        <v>4.00000000001</v>
       </c>
       <c r="B22">
-        <v>0.129792716</v>
+        <v>0.58338519306000003</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B23">
-        <v>0.130329375</v>
+        <v>0.58496255613399994</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B24">
-        <v>0.130757763</v>
+        <v>0.58621761515299997</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="B25">
-        <v>0.131099403</v>
+        <v>0.58721586981100005</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B26">
-        <v>0.13137163099999999</v>
+        <v>0.58800964140800005</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="B27">
-        <v>0.13158840499999999</v>
+        <v>0.58864067366999995</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B28">
-        <v>0.13176093</v>
+        <v>0.58914223957800005</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="B29">
-        <v>0.131898178</v>
+        <v>0.58954084055</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="B30">
-        <v>0.13200732200000001</v>
+        <v>0.58985757212400003</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B31">
-        <v>0.132094089</v>
+        <v>0.59010921867199995</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>0.13216304400000001</v>
+        <v>0.59030912926000001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B33">
-        <v>0.13221782600000001</v>
+        <v>0.59046791720500003</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="B34">
-        <v>0.13226133000000001</v>
+        <v>0.59059401819799995</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="B35">
-        <v>0.13229585999999999</v>
+        <v>0.590694135111</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="B36">
-        <v>0.132323248</v>
+        <v>0.59077359224000003</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="B37">
-        <v>0.13234494599999999</v>
+        <v>0.59083661724600001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="B38">
-        <v>0.13236211000000001</v>
+        <v>0.59088656543899998</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="B39">
-        <v>0.13237565300000001</v>
+        <v>0.59092609815899999</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="B40">
-        <v>0.13238630100000001</v>
+        <v>0.59095732465600004</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="B41">
-        <v>0.13239462499999999</v>
+        <v>0.59098191497300001</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>6.1</v>
+        <v>5.99999999988</v>
       </c>
       <c r="B42">
-        <v>0.13240107700000001</v>
+        <v>0.59100121608699996</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="B43">
-        <v>0.13240601299999999</v>
+        <v>0.59101619270700001</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>6.3</v>
+        <v>6.1999999999500002</v>
       </c>
       <c r="B44">
-        <v>0.13240971600000001</v>
+        <v>0.59102774675900005</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>6.4</v>
+        <v>6.3000000000499998</v>
       </c>
       <c r="B45">
-        <v>0.13241240500000001</v>
+        <v>0.59103652925799999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="B46">
-        <v>0.13241425800000001</v>
+        <v>0.59104297026599995</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="B47">
-        <v>0.132415431</v>
+        <v>0.59104755907600004</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="B48">
-        <v>0.13241599000000001</v>
+        <v>0.59105059129799997</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="B49">
-        <v>0.132416073</v>
+        <v>0.59105232506000005</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>6.9</v>
+        <v>6.8000000000499998</v>
       </c>
       <c r="B50">
-        <v>0.13241573500000001</v>
+        <v>0.59105296598000001</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="B51">
-        <v>0.13241502599999999</v>
+        <v>0.59105267481299995</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="B52">
-        <v>0.13241399500000001</v>
+        <v>0.59105157066400005</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="B53">
-        <v>0.132412641</v>
+        <v>0.59104973066400002</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="B54">
-        <v>0.13241096099999999</v>
+        <v>0.59104718721899996</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="B55">
-        <v>0.13240892000000001</v>
+        <v>0.59104392389799998</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="B56">
-        <v>0.13240643899999999</v>
+        <v>0.59103987064100005</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="B57">
-        <v>0.13240347399999999</v>
+        <v>0.59103489841800005</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="B58">
-        <v>0.132399818</v>
+        <v>0.59102881288499998</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="B59">
-        <v>0.13239536599999999</v>
+        <v>0.59102128811599997</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="B60">
-        <v>0.13238987999999999</v>
+        <v>0.59101207135099998</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="B61">
-        <v>0.13238308600000001</v>
+        <v>0.59100066580800004</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="B62">
-        <v>0.13237464299999999</v>
+        <v>0.59098650146800003</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="B63">
-        <v>0.132364129</v>
+        <v>0.59096886561799999</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="B64">
-        <v>0.13235102100000001</v>
+        <v>0.590946872746</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>8.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="B65">
-        <v>0.13233467500000001</v>
+        <v>0.59091942751299997</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="B66">
-        <v>0.13231430599999999</v>
+        <v>0.59088518209899998</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="B67">
-        <v>0.13228896100000001</v>
+        <v>0.59084248684200003</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>8.6999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="B68">
-        <v>0.13225748900000001</v>
+        <v>0.59078933703900005</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>8.8000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="B69">
-        <v>0.132218526</v>
+        <v>0.590723317784</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>8.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="B70">
-        <v>0.13217047300000001</v>
+        <v>0.59064155441099997</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="B71">
-        <v>0.132111494</v>
+        <v>0.59054067504300001</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="B72">
-        <v>0.13203953600000001</v>
+        <v>0.590416800962</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>9.1999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="B73">
-        <v>0.13195238200000001</v>
+        <v>0.59026558586599998</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>9.3000000000000007</v>
+        <v>9.1999999997999993</v>
       </c>
       <c r="B74">
-        <v>0.13184775900000001</v>
+        <v>0.59008232452800002</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>9.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="B75">
-        <v>0.13172349799999999</v>
+        <v>0.58986216506300004</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="B76">
-        <v>0.13157776800000001</v>
+        <v>0.58960044901800002</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="B77">
-        <v>0.131409369</v>
+        <v>0.58929319596999996</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="B78">
-        <v>0.13121806</v>
+        <v>0.58893772149300005</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="B79">
-        <v>0.131004865</v>
+        <v>0.58853333355899995</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>9.9</v>
+        <v>9.8000000000499998</v>
       </c>
       <c r="B80">
-        <v>0.13077228399999999</v>
+        <v>0.58808199674399997</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="B81">
-        <v>0.13052432</v>
+        <v>0.58758880285500004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>9.9999999999</v>
+      </c>
+      <c r="B82">
+        <v>0.58706206852800003</v>
       </c>
     </row>
   </sheetData>

--- a/Manuscript/Figures/Data/Figure7-Pyrite 1 site DDL Deprotonated Site Data.xlsx
+++ b/Manuscript/Figures/Data/Figure7-Pyrite 1 site DDL Deprotonated Site Data.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
